--- a/documents/master accounts.xlsx
+++ b/documents/master accounts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truonggiangit793/Desktop/crm/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truonggiangit793/Desktop/store-system/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFB81D4-48CD-2840-9B64-AD061CD6238A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478C8AD7-1C76-FA46-8C14-5E6B3141191B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,9 +70,6 @@
     <t>CK-HCM0323384</t>
   </si>
   <si>
-    <t>HOÀNG TUẤN TUYẾT</t>
-  </si>
-  <si>
     <t>0901544827</t>
   </si>
   <si>
@@ -284,6 +281,9 @@
   </si>
   <si>
     <t>sBuGyF</t>
+  </si>
+  <si>
+    <t>HOÀNG TUẤN KIỆT</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1526,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1565,7 +1565,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
@@ -1585,7 +1585,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -1594,7 +1594,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1602,56 +1602,56 @@
         <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>10</v>
@@ -1659,142 +1659,142 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="C9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/documents/master accounts.xlsx
+++ b/documents/master accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truonggiangit793/Desktop/store-system/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478C8AD7-1C76-FA46-8C14-5E6B3141191B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BC081F-4C43-3249-8C09-D95294ECA6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1654,7 +1654,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
